--- a/reports/corpus_1500-unigram_trigram-fold-3.xlsx
+++ b/reports/corpus_1500-unigram_trigram-fold-3.xlsx
@@ -555,67 +555,67 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9866666666666667</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8254545454545454</v>
+        <v>0.9818181818181818</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9207920792079208</v>
+        <v>0.9900990099009901</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
-        <v>0.8404255319148937</v>
+        <v>0.925531914893617</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8828828828828829</v>
+        <v>0.9819819819819819</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06666666666666667</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8736059479553904</v>
+        <v>0.9702602230483272</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5258620689655172</v>
+        <v>0.8247126436781609</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9613045881702598</v>
+        <v>0.9596462133775566</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4109243697478991</v>
+        <v>0.711764705882353</v>
       </c>
       <c r="P2" t="n">
-        <v>0.5754716981132075</v>
+        <v>0.9056603773584906</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4240837696335079</v>
+        <v>0.7382198952879581</v>
       </c>
       <c r="R2" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4345594525235244</v>
+        <v>0.8323353293413174</v>
       </c>
       <c r="T2" t="n">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="U2" t="n">
-        <v>0.7163377634581823</v>
+        <v>0.8872331856625051</v>
       </c>
       <c r="V2" t="n">
-        <v>0.5678162568601618</v>
+        <v>0.8375105438435929</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8416677818965068</v>
+        <v>0.9054313106190783</v>
       </c>
     </row>
     <row r="3">
@@ -631,64 +631,64 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.9902200488997555</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8254437869822485</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8977272727272727</v>
+        <v>0.9405405405405406</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9158878504672897</v>
+        <v>0.9316239316239316</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.975103734439834</v>
+        <v>0.9775280898876404</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9104477611940298</v>
+        <v>0.9053627760252366</v>
       </c>
       <c r="L3" t="n">
         <v>1</v>
       </c>
       <c r="M3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="N3" t="n">
-        <v>0.4747474747474748</v>
+        <v>0.7377815554611135</v>
       </c>
       <c r="O3" t="n">
         <v>1</v>
       </c>
       <c r="P3" t="n">
-        <v>0.9682539682539683</v>
+        <v>0.9896907216494846</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.9418604651162791</v>
+        <v>0.8924050632911392</v>
       </c>
       <c r="R3" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9087656529516994</v>
+        <v>0.9346781940441883</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7163377634581823</v>
+        <v>0.8872331856625051</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8676265596603558</v>
+        <v>0.8939184159081682</v>
       </c>
       <c r="W3" t="n">
-        <v>0.7163377634581823</v>
+        <v>0.8872331856625051</v>
       </c>
     </row>
     <row r="4">
@@ -701,67 +701,67 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9932885906040269</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9043824701195219</v>
+        <v>0.9860012172854534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8705148205928237</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>0.8681318681318682</v>
+        <v>0.932975871313673</v>
       </c>
       <c r="H4" t="n">
-        <v>0.8990825688073394</v>
+        <v>0.9561403508771931</v>
       </c>
       <c r="I4" t="n">
-        <v>0.125</v>
+        <v>0.6956521739130436</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9215686274509804</v>
+        <v>0.9738805970149255</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6666666666666667</v>
+        <v>0.863157894736842</v>
       </c>
       <c r="L4" t="n">
-        <v>0.625</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="N4" t="n">
-        <v>0.6355994152046783</v>
+        <v>0.834214320038443</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5824895771292437</v>
+        <v>0.831615120274914</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7218934911242603</v>
+        <v>0.9458128078817735</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5848375451263538</v>
+        <v>0.8080229226361031</v>
       </c>
       <c r="R4" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.3863636363636364</v>
       </c>
       <c r="S4" t="n">
-        <v>0.587962962962963</v>
+        <v>0.8805429864253395</v>
       </c>
       <c r="T4" t="n">
-        <v>0.4</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="U4" t="n">
-        <v>0.7163377634581823</v>
+        <v>0.8872331856625051</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6299071992494163</v>
+        <v>0.8520712338807833</v>
       </c>
       <c r="W4" t="n">
-        <v>0.7197187845155514</v>
+        <v>0.8878373947598392</v>
       </c>
     </row>
     <row r="5">
@@ -774,61 +774,61 @@
         <v>356</v>
       </c>
       <c r="C5" t="n">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D5" t="n">
-        <v>681</v>
+        <v>818</v>
       </c>
       <c r="E5" t="n">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G5" t="n">
-        <v>352</v>
+        <v>370</v>
       </c>
       <c r="H5" t="n">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J5" t="n">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="K5" t="n">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="L5" t="n">
+        <v>10</v>
+      </c>
+      <c r="M5" t="n">
+        <v>6</v>
+      </c>
+      <c r="N5" t="n">
+        <v>2353</v>
+      </c>
+      <c r="O5" t="n">
+        <v>847</v>
+      </c>
+      <c r="P5" t="n">
+        <v>97</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>158</v>
+      </c>
+      <c r="R5" t="n">
+        <v>31</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1041</v>
+      </c>
+      <c r="T5" t="n">
         <v>5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3663</v>
-      </c>
-      <c r="O5" t="n">
-        <v>489</v>
-      </c>
-      <c r="P5" t="n">
-        <v>63</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>86</v>
-      </c>
-      <c r="R5" t="n">
-        <v>9</v>
-      </c>
-      <c r="S5" t="n">
-        <v>559</v>
-      </c>
-      <c r="T5" t="n">
-        <v>1</v>
-      </c>
       <c r="U5" t="n">
-        <v>0.7163377634581823</v>
+        <v>0.8872331856625051</v>
       </c>
       <c r="V5" t="n">
         <v>7449</v>
